--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\Year 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\Year 4\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B0326D-1ECB-444C-A08E-B930ED90CD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D082FC1B-73E1-4252-9252-722FEC9A977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" firstSheet="5" activeTab="11" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-8745" yWindow="7950" windowWidth="18060" windowHeight="15435" tabRatio="769" activeTab="2" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
-    <sheet name="SYSC 3303" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="SYSC 3320" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="SYSC 4001" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="SYSC 3501" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="TSES 4012" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="SYSC 4602" sheetId="7" r:id="rId6"/>
-    <sheet name="ELEC 4705" sheetId="6" r:id="rId7"/>
-    <sheet name="SYSC 4310" sheetId="8" r:id="rId8"/>
-    <sheet name="SYSC4810" sheetId="9" r:id="rId9"/>
-    <sheet name="SYSC4805" sheetId="10" r:id="rId10"/>
-    <sheet name="SYSC 4907" sheetId="11" r:id="rId11"/>
-    <sheet name="Transcript" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId13"/>
-    <sheet name="LetterGrade Lookup" sheetId="12" state="hidden" r:id="rId14"/>
+    <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
+    <sheet name="SYSC 4502" sheetId="2" r:id="rId2"/>
+    <sheet name="SYSC 4415" sheetId="3" r:id="rId3"/>
+    <sheet name="TSES 4012" sheetId="5" r:id="rId4"/>
+    <sheet name="SYSC 4602" sheetId="7" state="hidden" r:id="rId5"/>
+    <sheet name="ELEC 4705" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="SYSC 4310" sheetId="8" state="hidden" r:id="rId7"/>
+    <sheet name="SYSC4810" sheetId="9" state="hidden" r:id="rId8"/>
+    <sheet name="SYSC4805" sheetId="10" r:id="rId9"/>
+    <sheet name="SYSC 4907" sheetId="11" r:id="rId10"/>
+    <sheet name="Transcript" sheetId="14" r:id="rId11"/>
+    <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId12"/>
+    <sheet name="LetterGrade Lookup" sheetId="12" state="hidden" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
   <si>
     <t>Deliverable Name</t>
   </si>
@@ -199,9 +198,6 @@
     <t>Labs</t>
   </si>
   <si>
-    <t>Project</t>
-  </si>
-  <si>
     <t>Assignments</t>
   </si>
   <si>
@@ -217,57 +213,15 @@
     <t>Project:</t>
   </si>
   <si>
-    <t>Iteration 1</t>
-  </si>
-  <si>
-    <t>Iteration 2</t>
-  </si>
-  <si>
-    <t>Iteration 3</t>
-  </si>
-  <si>
-    <t>Iteration 4</t>
-  </si>
-  <si>
-    <t>Iteration 5</t>
-  </si>
-  <si>
     <t>Project Final</t>
   </si>
   <si>
-    <t>Midterms:</t>
-  </si>
-  <si>
-    <t>Midterm Average</t>
-  </si>
-  <si>
-    <t>Oral</t>
-  </si>
-  <si>
-    <t>Written</t>
-  </si>
-  <si>
-    <t>Quizzes:</t>
-  </si>
-  <si>
-    <t>Test Average</t>
-  </si>
-  <si>
     <t>Projects:</t>
   </si>
   <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Projects Average</t>
   </si>
   <si>
-    <t>Participation Submissions</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -304,21 +258,6 @@
     <t>Participation Average</t>
   </si>
   <si>
-    <t>Book Assessment</t>
-  </si>
-  <si>
-    <t>SYSC 3303</t>
-  </si>
-  <si>
-    <t>SYSC 3320</t>
-  </si>
-  <si>
-    <t>SYSC 4001</t>
-  </si>
-  <si>
-    <t>SYSC 3501</t>
-  </si>
-  <si>
     <t>TSES 4012</t>
   </si>
   <si>
@@ -413,12 +352,51 @@
   </si>
   <si>
     <t>Lab 6</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Midterms</t>
+  </si>
+  <si>
+    <t>SYSC 4504</t>
+  </si>
+  <si>
+    <t>Quizzes</t>
+  </si>
+  <si>
+    <t>SYSC 4415</t>
+  </si>
+  <si>
+    <t>SYSC 4502</t>
+  </si>
+  <si>
+    <t>Weekly Reflections</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Essay 1</t>
+  </si>
+  <si>
+    <t>Essay 2</t>
+  </si>
+  <si>
+    <t>Lecture Summary 1</t>
+  </si>
+  <si>
+    <t>Lecture Summary 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,7 +496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -548,6 +526,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -577,8 +558,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DBE6C6A-8C2E-4294-82DF-56C65B6BCAF5}" name="Table2" displayName="Table2" ref="F5:H10" totalsRowShown="0">
-  <autoFilter ref="F5:H10" xr:uid="{FFE9CC18-36CC-4F13-886D-29DECCA1C422}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DBE6C6A-8C2E-4294-82DF-56C65B6BCAF5}" name="Table2" displayName="Table2" ref="F5:H9" totalsRowShown="0">
+  <autoFilter ref="F5:H9" xr:uid="{FFE9CC18-36CC-4F13-886D-29DECCA1C422}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B70864A-9E85-451B-8B76-02DAE33A2BDB}" name="Course"/>
     <tableColumn id="2" xr3:uid="{B65847F9-DCB2-4233-9A3C-9608CA24C62E}" name="Grade Percentage" dataDxfId="1"/>
@@ -889,7 +870,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -897,17 +878,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40B08C-6FC0-4384-833D-8D5890E86605}">
-  <dimension ref="C2:H32"/>
+  <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -918,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>2</v>
@@ -930,323 +911,305 @@
     <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>1.8000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6:F9" si="0">D6*E6</f>
-        <v>1.6E-2</v>
+        <f t="shared" ref="F6:F10" si="0">D6*E6</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.6</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.95</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4">
-        <f>AVERAGE(D5:D9)</f>
-        <v>0.81000000000000016</v>
-      </c>
-      <c r="E10" s="10">
-        <f>SUM(E5:E9)</f>
-        <v>0.1</v>
-      </c>
-      <c r="F10" s="4">
-        <f>SUM(F5:F9)</f>
-        <v>8.1000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="F13" s="4">
-        <f>D13*E13</f>
-        <v>7.2000000000000008E-2</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="10">
+        <f>SUM(E5:E10)</f>
+        <v>0.18</v>
+      </c>
+      <c r="F11" s="4">
+        <f>SUM(F5:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.93799999999999994</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F17" si="1">D14*E14</f>
-        <v>7.5039999999999996E-2</v>
+        <f>D14*E14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.85</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>6.8000000000000005E-2</v>
+        <f t="shared" ref="F15:F18" si="1">D15*E15</f>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="4">
-        <f>19.17/20</f>
-        <v>0.95850000000000013</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4">
-        <v>0.08</v>
+        <f>SUM(E14:E16)</f>
+        <v>0.22</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>7.6680000000000012E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="4">
-        <f>AVERAGE(D13:D17)</f>
-        <v>0.92930000000000013</v>
-      </c>
-      <c r="E18" s="4">
-        <f>SUM(E13:E17)</f>
-        <v>0.4</v>
-      </c>
-      <c r="F18" s="4">
-        <f>SUM(F13:F17)</f>
-        <v>0.37172000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="F21" s="4">
-        <f>D21*E21</f>
-        <v>6.3E-2</v>
-      </c>
+        <f>SUM(F14:F16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" ref="F22" si="2">D22*E22</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="4">
-        <f>AVERAGE(D21:D22)</f>
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="E23" s="10">
-        <f>SUM(E21:E22)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="4">
-        <f>SUM(F21:F22)</f>
-        <v>0.16300000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="14" t="s">
+        <f>D22*E22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="F24" s="4">
+        <f>D24*E24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="10">
-        <f>SUM(E18,E10,E23)</f>
-        <v>0.7</v>
-      </c>
-      <c r="F26" s="1">
-        <f>(SUM(F10,F18,F23)/E26)</f>
-        <v>0.87960000000000016</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="11" t="s">
+      <c r="E27" s="10">
+        <f>SUM(E17,E11,E22,E24)</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="F27" s="1">
+        <f>(SUM(F11,F17,F24)/E27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="4">
-        <v>0.95</v>
-      </c>
-      <c r="E28" s="4">
-        <f>1-E26</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F28" s="4">
-        <f>D28*E28</f>
-        <v>0.28500000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H29" s="12" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <f>1-E27</f>
+        <v>0.34999999999999987</v>
+      </c>
+      <c r="F29" s="4">
+        <f>D29*E29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="14" t="s">
+    <row r="31" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="1">
-        <f>(F26*E26)+(D28*E28)</f>
-        <v>0.90072000000000008</v>
-      </c>
-      <c r="H30" t="str">
-        <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A+</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+      <c r="F31" s="1">
+        <f>(F27*E27)+(D29*E29)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" t="str">
+        <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="10">
-        <v>0.95</v>
-      </c>
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D12:D18 D7:D10">
+  <conditionalFormatting sqref="D7:D11 D13:D18">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D6 D29 D21">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1258,31 +1221,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 D28 D20">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D23">
+  <conditionalFormatting sqref="D17">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -1300,269 +1239,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B801A28-B166-4E73-98CC-EEDEB78D5956}">
-  <dimension ref="B2:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E5" s="4">
-        <f>C5*D5</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4">
-        <f t="shared" ref="E6:E8" si="0">C6*D6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.192</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
-        <f>SUM(D5:D8)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="4">
-        <f>SUM(E5:E8)</f>
-        <v>0.29200000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.73</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.05</v>
-      </c>
-      <c r="E12" s="4">
-        <f>C12*D12</f>
-        <v>3.6499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.91</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" ref="E13:E16" si="1">C13*D13</f>
-        <v>9.1000000000000011E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="10">
-        <f>SUM(D12:D16)</f>
-        <v>0.5</v>
-      </c>
-      <c r="E17" s="10">
-        <f>SUM(E12:E16)</f>
-        <v>0.1275</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="4">
-        <f>SUM(D17,D9)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <f>SUM(E9,E17)</f>
-        <v>0.41950000000000004</v>
-      </c>
-      <c r="F19" t="str">
-        <f>LOOKUP(E19,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="10"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C5:C9 C11">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="30"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C14 C16">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="30"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="30"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98FBC54-0CDF-4A45-9FE9-6E74382B401F}">
   <dimension ref="C25:F27"/>
   <sheetViews>
@@ -1593,12 +1269,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
   <dimension ref="B4:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,17 +1283,17 @@
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -1628,7 +1304,7 @@
         <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1637,39 +1313,39 @@
         <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1">
         <f>SYSC4810!E23</f>
-        <v>0.47211253968253974</v>
+        <v>0.9271125396825397</v>
       </c>
       <c r="D6" t="str">
         <f>LOOKUP(C6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G6" s="1">
-        <f>'SYSC 3303'!F30</f>
-        <v>0.90072000000000008</v>
+        <f>'SYSC 4504'!F31</f>
+        <v>0</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A+</v>
+        <v>F</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1">
         <f>SYSC4805!E19</f>
@@ -1680,92 +1356,81 @@
         <v>F</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1">
-        <f>'SYSC 3320'!F19</f>
-        <v>0.8899999999999999</v>
+        <f>'SYSC 4502'!F27</f>
+        <v>0</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1">
-        <f>'ELEC 4705'!E21</f>
-        <v>0</v>
+        <f>'ELEC 4705'!C14</f>
+        <v>0.92</v>
       </c>
       <c r="D8" t="str">
         <f>LOOKUP(C8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="G8" s="1">
-        <f>'SYSC 4001'!F20</f>
-        <v>0.83499999999999996</v>
+        <f>'SYSC 4415'!F24</f>
+        <v>0</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A-</v>
+        <v>F</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1">
         <f>'SYSC 4310'!E24</f>
-        <v>0.53964999999999996</v>
+        <v>0.93164999999999987</v>
       </c>
       <c r="D9" t="str">
         <f>LOOKUP(C9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D</v>
+        <v>A+</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="G9" s="1">
-        <f>'SYSC 3501'!F24</f>
-        <v>0.84189999999999998</v>
+        <f>'TSES 4012'!F30</f>
+        <v>0</v>
       </c>
       <c r="H9" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A-</v>
+        <v>F</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1">
         <f>'SYSC 4602'!E24</f>
-        <v>0.46899999999999997</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="D10" t="str">
         <f>LOOKUP(C10,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
-      </c>
-      <c r="F10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="1">
-        <f>'TSES 4012'!F26</f>
-        <v>0.90199999999999991</v>
-      </c>
-      <c r="H10" t="str">
-        <f>LOOKUP(G10,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>A+</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1">
         <f>'SYSC 4907'!E25</f>
@@ -1785,7 +1450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE9BA02F-B7FA-49AA-81AC-14B83DC59856}">
   <dimension ref="B2:B29"/>
   <sheetViews>
@@ -1944,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA43BB96-763E-4471-A439-6E156A2AE051}">
   <dimension ref="B3:C15"/>
   <sheetViews>
@@ -2069,17 +1734,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F42871C-6C37-4276-988F-E0CB1B38DC91}">
-  <dimension ref="C2:H21"/>
+  <dimension ref="C2:H29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -2090,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>2</v>
@@ -2102,88 +1767,85 @@
     <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F10" si="0">D6*E6</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
+      <c r="D9" s="4"/>
       <c r="E9" s="4">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4">
+        <v>0.03</v>
+      </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2193,99 +1855,163 @@
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="4">
-        <f>AVERAGE(D5:D10)</f>
-        <v>1</v>
-      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4">
         <f>SUM(E5:E10)</f>
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F13" s="4">
-        <f>D13*E13</f>
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="10">
-        <f>SUM(E11,E13)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="1">
-        <f>(SUM(F11,F13)/E15)</f>
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.84</v>
-      </c>
-      <c r="E17" s="4">
-        <f>1-E15</f>
-        <v>0.5</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" ref="F14:F17" si="1">D14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="10">
+        <f>SUM(E14:E16)</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="F17" s="4">
-        <f>D17*E17</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H18" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="1">
-        <f>(F15*E15)+(D17*E17)</f>
-        <v>0.8899999999999999</v>
-      </c>
-      <c r="H19" t="str">
-        <f>LOOKUP(F19,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f>SUM(F14:F16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F20" s="4">
+        <f>D19*E20</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="4">
+        <f>D20*E21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10">
+        <f>SUM(E11,E17,E20:E21)</f>
+        <v>0.73</v>
+      </c>
+      <c r="F23" s="1">
+        <f>(SUM(F11,F20)/E23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4">
+        <f>1-E23</f>
+        <v>0.27</v>
+      </c>
+      <c r="F25" s="4">
+        <f>D25*E25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H26" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1">
+        <f>(F23*E23)+(D25*E25)</f>
+        <v>0</v>
+      </c>
+      <c r="H27" t="str">
+        <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10"/>
+      <c r="D29" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D11">
+  <conditionalFormatting sqref="D5:D11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2297,7 +2023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13 D17">
+  <conditionalFormatting sqref="D25 D19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2315,10 +2041,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
-  <dimension ref="C2:H22"/>
+  <dimension ref="C2:H26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,198 +2074,217 @@
     <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.91</v>
-      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>9.1000000000000011E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.85</v>
-      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F6" s="4">
         <f>D6*E6</f>
-        <v>8.5000000000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F7" s="4">
         <f>D7*E7</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="4">
+        <f>D8*E8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4">
-        <f>AVERAGE(D5:D7)</f>
-        <v>0.91999999999999993</v>
-      </c>
-      <c r="E8" s="10">
-        <f>SUM(E5:E7)</f>
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="10">
+        <f>SUM(E5:E8)</f>
+        <v>0.2</v>
+      </c>
+      <c r="F9" s="4">
         <f>SUM(F5:F7)</f>
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F10" s="4">
-        <f>D10*E10</f>
-        <v>0.13400000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10">
-        <f>SUM(E8,E10)</f>
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="1">
-        <f>(SUM(F8,F10)/E12)</f>
-        <v>0.82000000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" ref="F12:F15" si="0">D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
       <c r="E14" s="4">
-        <f>1-E12</f>
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="10">
-        <f>SUM(F15:F17)/E14</f>
-        <v>0.85</v>
+        <v>0.05</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.85</v>
+        <v>87</v>
       </c>
       <c r="E15" s="4">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="F15" s="4">
-        <f>D15*E15</f>
-        <v>0.255</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="F16" s="4">
         <f>D16*E16</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="F17" s="4">
-        <f>D17*E17</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="4">
+        <f>D18*E18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="10">
+        <f>SUM(E9,E16,E18)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F20" s="1">
+        <f>(SUM(F9,F18)/E20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4">
+        <f>1-E20</f>
+        <v>0.35</v>
+      </c>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H23" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="1">
-        <f>(F12*E12)+(F14*E14)</f>
-        <v>0.83499999999999996</v>
-      </c>
-      <c r="H20" t="str">
-        <f>LOOKUP(F20,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A-</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="1">
+        <f>(F20*E20)+(F22*E22)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" t="str">
+        <f>LOOKUP(F24,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D7:D10 D18">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2551,7 +2296,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 D14 D8:D10">
+  <conditionalFormatting sqref="D5:D6 D22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2563,7 +2308,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2580,24 +2325,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4102EE0F-DF8D-4EE5-96AB-54790ABFC13E}">
-  <dimension ref="C2:H26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
+  <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2611,243 +2356,321 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
       <c r="C4" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.85</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.2</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>0.1</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" ref="F6" si="0">D6*E6</f>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14" t="s">
-        <v>41</v>
+        <f t="shared" ref="F6:F8" si="0">D6*E6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>112</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="10">
-        <f>SUM(E5:E6)</f>
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="F7" s="4">
-        <f>SUM(F5:F6)</f>
-        <v>0.20500000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="11" t="s">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6"/>
+      <c r="C9" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.63</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="F10" s="4">
-        <f>D10*E10</f>
-        <v>0.1575</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="F11" s="4">
-        <f>D11*E11</f>
-        <v>0.30099999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="10">
-        <f>SUM(E10:E11)</f>
-        <v>0.6</v>
+      <c r="E9" s="10">
+        <f>SUM(E5:E8)</f>
+        <v>0.34000000000000008</v>
+      </c>
+      <c r="F9" s="4">
+        <f>SUM(F5:F7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6"/>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="4">
-        <f>SUM(F10:F11)</f>
-        <v>0.45850000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
-        <v>7</v>
+        <f>D12*E12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" ref="F13:F22" si="1">D13*E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>60</v>
       </c>
       <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.04</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="4">
-        <f>D15*E15</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.04</v>
+        <v>62</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" ref="F16:F19" si="1">D16*E16</f>
-        <v>3.6799999999999999E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.87</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.04</v>
+        <v>63</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="1"/>
-        <v>3.4799999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.04</v>
+        <v>64</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>3.5200000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.79</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.04</v>
+        <v>65</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>3.1600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="14" t="s">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>66</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4">
-        <f>SUM(E15:E19)</f>
-        <v>0.2</v>
+      <c r="E20" s="18">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F20" s="4">
-        <f>SUM(F15:F19)</f>
-        <v>0.1784</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H23" s="12" t="s">
+      <c r="E22" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" ref="F23" si="2">D23*E23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="19">
+        <f>SUM(E12:E23)</f>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="F24" s="4">
+        <f>SUM(F12:F23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="10">
+        <f>SUM(E9,E24)</f>
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="F26" s="1">
+        <f>(SUM(F9,F24)/E26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4">
+        <f>1-E26</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H29" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="14" t="s">
+    <row r="30" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="1">
-        <f>F7+F12+F20</f>
-        <v>0.84189999999999998</v>
-      </c>
-      <c r="H24" t="str">
-        <f>LOOKUP(F24,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A-</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="10"/>
+      <c r="F30" s="1">
+        <f>SUM(F26,F27)</f>
+        <v>0</v>
+      </c>
+      <c r="H30" t="str">
+        <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+        <v>F</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D7 D20 D9 D14">
+  <conditionalFormatting sqref="D9:D24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2859,19 +2682,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 D22">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
+  <conditionalFormatting sqref="D9">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2883,7 +2694,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D11">
+  <conditionalFormatting sqref="D5:D8">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2895,7 +2706,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D19">
+  <conditionalFormatting sqref="D27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2912,376 +2723,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
-  <dimension ref="B2:H26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.88</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="4">
-        <f>D5*E5</f>
-        <v>0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" ref="F6:F7" si="0">D6*E6</f>
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.94</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="4">
-        <f t="shared" si="0"/>
-        <v>0.188</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="10">
-        <f>SUM(E5:E7)</f>
-        <v>0.8</v>
-      </c>
-      <c r="F8" s="4">
-        <f>SUM(F5:F7)</f>
-        <v>0.72199999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F11" s="4">
-        <f>D11*E11</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" ref="F12:F21" si="1">D12*E12</f>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F16" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" s="4">
-        <v>1</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="4">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0.02</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="10">
-        <f>SUM(E11:E21)</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="F23" s="4">
-        <f>SUM(F11:F21)</f>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H25" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="1">
-        <f>SUM(F8,F23)</f>
-        <v>0.90199999999999991</v>
-      </c>
-      <c r="H26" t="str">
-        <f>LOOKUP(F26,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>A+</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D8:D22">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D7">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8DB95B-AC99-4DBB-8BA6-C9CFD039004E}">
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,12 +2755,12 @@
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3329,7 +2775,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C6" s="4">
         <v>0.85</v>
@@ -3344,7 +2790,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
@@ -3448,7 +2894,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -3464,7 +2910,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -3525,14 +2971,16 @@
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>0.9</v>
+      </c>
       <c r="D23" s="4">
         <f>1-D21</f>
         <v>0.5</v>
       </c>
       <c r="E23" s="8">
         <f>C23*D23</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -3547,11 +2995,11 @@
       </c>
       <c r="E24" s="1">
         <f>(E21*D21)+(D23*C23)</f>
-        <v>0.46899999999999997</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F24" t="str">
         <f>LOOKUP(E24,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -3604,12 +3052,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23824A43-8FC1-46A6-857D-F140B2060BA9}">
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3672,7 +3120,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4">
         <v>0.93</v>
@@ -3687,7 +3135,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C8" s="4">
         <v>0.91700000000000004</v>
@@ -3702,7 +3150,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -3752,14 +3200,16 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4">
+        <v>0.92</v>
+      </c>
       <c r="D14" s="4">
         <f>1-D12</f>
         <v>0.5</v>
       </c>
       <c r="E14" s="8">
         <f>C14*D14</f>
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
@@ -3774,11 +3224,11 @@
       </c>
       <c r="E15" s="1">
         <f>(E12*D12)+(D14*C14)</f>
-        <v>0.47581249999999997</v>
+        <v>0.93581249999999994</v>
       </c>
       <c r="F15" t="str">
         <f>LOOKUP(E15,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -3844,12 +3294,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17383B8E-801E-49B3-80FC-FEE68206AB6A}">
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3877,7 +3327,7 @@
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -4016,7 +3466,7 @@
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -4052,14 +3502,16 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="4">
+        <v>0.98</v>
+      </c>
       <c r="D22" s="4">
         <f>1-D20</f>
         <v>0.39999999999999991</v>
       </c>
       <c r="E22">
         <f>C22*D22</f>
-        <v>0</v>
+        <v>0.3919999999999999</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -4074,11 +3526,11 @@
       </c>
       <c r="E24" s="1">
         <f>(E20*D20)+(D22*C22)</f>
-        <v>0.53964999999999996</v>
+        <v>0.93164999999999987</v>
       </c>
       <c r="F24" t="str">
         <f>LOOKUP(E24,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -4119,12 +3571,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD28651-12EC-44C5-8BAE-83A80F2C299F}">
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4189,7 +3641,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -4205,7 +3657,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C8" s="4">
         <v>0.85</v>
@@ -4221,7 +3673,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4">
         <v>0.7142857142857143</v>
@@ -4248,7 +3700,7 @@
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -4321,7 +3773,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -4368,14 +3820,16 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4">
+        <v>0.91</v>
+      </c>
       <c r="D21" s="4">
         <f>1-D20</f>
         <v>0.5</v>
       </c>
       <c r="E21" s="4">
         <f>C21*D21</f>
-        <v>0</v>
+        <v>0.45500000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -4391,11 +3845,11 @@
       <c r="D23" s="4"/>
       <c r="E23" s="1">
         <f>(E20*D20)+(C21*D21)</f>
-        <v>0.47211253968253974</v>
+        <v>0.9271125396825397</v>
       </c>
       <c r="F23" t="str">
         <f>LOOKUP(E23,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -4408,8 +3862,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C12:C18 C5:C9">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="C5:C9 C12:C18">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -4422,4 +3888,267 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B801A28-B166-4E73-98CC-EEDEB78D5956}">
+  <dimension ref="B2:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="4">
+        <f>C5*D5</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" ref="E6:E8" si="0">C6*D6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <f>SUM(D5:D8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="4">
+        <f>SUM(E5:E8)</f>
+        <v>0.29200000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.73</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E12" s="4">
+        <f>C12*D12</f>
+        <v>3.6499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.91</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" ref="E13:E16" si="1">C13*D13</f>
+        <v>9.1000000000000011E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="10">
+        <f>SUM(D12:D16)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="10">
+        <f>SUM(E12:E16)</f>
+        <v>0.1275</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <f>SUM(D17,D9)</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(E9,E17)</f>
+        <v>0.41950000000000004</v>
+      </c>
+      <c r="F19" t="str">
+        <f>LOOKUP(E19,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="C5:C9 C11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="30"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C14 C16">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="30"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="30"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\Year 4\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D082FC1B-73E1-4252-9252-722FEC9A977F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9E0FB-3BE7-4249-90E8-EEDBFDAC03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8745" yWindow="7950" windowWidth="18060" windowHeight="15435" tabRatio="769" activeTab="2" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="1" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -526,7 +526,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -881,7 +880,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1037,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:F18" si="1">D15*E15</f>
+        <f t="shared" ref="F15:F16" si="1">D15*E15</f>
         <v>0</v>
       </c>
     </row>
@@ -1360,7 +1359,7 @@
       </c>
       <c r="G7" s="1">
         <f>'SYSC 4502'!F27</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1736,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F42871C-6C37-4276-988F-E0CB1B38DC91}">
   <dimension ref="C2:H29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,13 +1776,15 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
       <c r="E5" s="4">
         <v>0.03</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -1862,7 +1863,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1879,7 +1880,7 @@
         <v>0.03</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" ref="F14:F17" si="1">D14*E14</f>
+        <f t="shared" ref="F14:F16" si="1">D14*E14</f>
         <v>0</v>
       </c>
     </row>
@@ -1960,7 +1961,7 @@
       </c>
       <c r="F23" s="1">
         <f>(SUM(F11,F20)/E23)</f>
-        <v>0</v>
+        <v>4.1095890410958902E-2</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1995,7 +1996,7 @@
       </c>
       <c r="F27" s="1">
         <f>(F23*E23)+(D25*E25)</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H27" t="str">
         <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -2023,7 +2024,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 D19">
+  <conditionalFormatting sqref="D19 D25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2043,8 +2044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
   <dimension ref="C2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:F20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2250,7 +2251,6 @@
         <f>1-E20</f>
         <v>0.35</v>
       </c>
-      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H23" s="12" t="s">
@@ -2452,7 +2452,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="4">
@@ -2465,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="4">
@@ -2478,7 +2478,7 @@
         <v>60</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="4">
@@ -2491,7 +2491,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="4">
@@ -2504,7 +2504,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="18">
+      <c r="E16" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="4">
@@ -2517,7 +2517,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="18">
+      <c r="E17" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="4">
@@ -2530,7 +2530,7 @@
         <v>64</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F18" s="4">
@@ -2543,7 +2543,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F19" s="4">
@@ -2556,7 +2556,7 @@
         <v>66</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="18">
+      <c r="E20" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F20" s="4">
@@ -2569,7 +2569,7 @@
         <v>67</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="18">
+      <c r="E21" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F21" s="4">
@@ -2582,7 +2582,7 @@
         <v>68</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F22" s="4">
@@ -2595,7 +2595,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F23" s="4">
@@ -2607,7 +2607,7 @@
       <c r="C24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <f>SUM(E12:E23)</f>
         <v>5.9999999999999991E-2</v>
       </c>
@@ -2642,7 +2642,6 @@
         <f>1-E26</f>
         <v>0.59999999999999987</v>
       </c>
-      <c r="F27" s="17"/>
     </row>
     <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="12" t="s">

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9E0FB-3BE7-4249-90E8-EEDBFDAC03F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDA3D7-B303-4FB8-970B-AA45E76453D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="1" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="10" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
     <sheet name="SYSC 4502" sheetId="2" r:id="rId2"/>
     <sheet name="SYSC 4415" sheetId="3" r:id="rId3"/>
-    <sheet name="TSES 4012" sheetId="5" r:id="rId4"/>
+    <sheet name="ECOR 4995" sheetId="5" r:id="rId4"/>
     <sheet name="SYSC 4602" sheetId="7" state="hidden" r:id="rId5"/>
     <sheet name="ELEC 4705" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="SYSC 4310" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="SYSC4810" sheetId="9" state="hidden" r:id="rId8"/>
-    <sheet name="SYSC4805" sheetId="10" r:id="rId9"/>
+    <sheet name="SYSC4805" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="SYSC 4907" sheetId="11" r:id="rId10"/>
     <sheet name="Transcript" sheetId="14" r:id="rId11"/>
     <sheet name="Sheet1" sheetId="15" state="hidden" r:id="rId12"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
   <si>
     <t>Deliverable Name</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Participation Average</t>
   </si>
   <si>
-    <t>TSES 4012</t>
-  </si>
-  <si>
     <t>SYSC 4810</t>
   </si>
   <si>
@@ -345,9 +342,6 @@
     <t>Presentation</t>
   </si>
   <si>
-    <t>Unhide winter</t>
-  </si>
-  <si>
     <t>Tests</t>
   </si>
   <si>
@@ -388,6 +382,12 @@
   </si>
   <si>
     <t>Lecture Summary 2</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>ECOR 4995</t>
   </si>
 </sst>
 </file>
@@ -557,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DBE6C6A-8C2E-4294-82DF-56C65B6BCAF5}" name="Table2" displayName="Table2" ref="F5:H9" totalsRowShown="0">
-  <autoFilter ref="F5:H9" xr:uid="{FFE9CC18-36CC-4F13-886D-29DECCA1C422}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5DBE6C6A-8C2E-4294-82DF-56C65B6BCAF5}" name="Table2" displayName="Table2" ref="F5:H10" totalsRowShown="0">
+  <autoFilter ref="F5:H10" xr:uid="{FFE9CC18-36CC-4F13-886D-29DECCA1C422}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4B70864A-9E85-451B-8B76-02DAE33A2BDB}" name="Course"/>
     <tableColumn id="2" xr3:uid="{B65847F9-DCB2-4233-9A3C-9608CA24C62E}" name="Grade Percentage" dataDxfId="1"/>
@@ -569,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6CBA390C-AF4E-46AD-B7DA-CBFEEAE7B3E7}" name="Table3" displayName="Table3" ref="B5:D11" totalsRowShown="0">
-  <autoFilter ref="B5:D11" xr:uid="{77CB18EE-BF34-4667-A94E-BF6FA2985170}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6CBA390C-AF4E-46AD-B7DA-CBFEEAE7B3E7}" name="Table3" displayName="Table3" ref="B5:D10" totalsRowShown="0">
+  <autoFilter ref="B5:D10" xr:uid="{77CB18EE-BF34-4667-A94E-BF6FA2985170}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{B29FEF7A-36F4-4777-A249-B79E33034F89}" name="Course"/>
     <tableColumn id="2" xr3:uid="{48BACD2A-5904-47CD-86C3-032592871EE5}" name="Grade Percentage" dataDxfId="0"/>
@@ -869,7 +869,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -880,7 +880,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>2</v>
@@ -920,13 +920,15 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>0.82</v>
+      </c>
       <c r="E5" s="4">
         <v>0.03</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>0</v>
+        <v>2.4599999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -983,7 +985,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
@@ -1005,7 +1007,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0</v>
+        <v>2.4599999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1077,7 @@
     </row>
     <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1100,7 +1102,7 @@
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="10">
@@ -1121,7 +1123,7 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24)/E27)</f>
-        <v>0</v>
+        <v>3.7846153846153835E-2</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1158,7 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0</v>
+        <v>2.4599999999999997E-2</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1242,7 +1244,7 @@
   <dimension ref="C25:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
-  <dimension ref="B4:J11"/>
+  <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1289,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1295,7 +1297,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1314,13 +1316,10 @@
       <c r="H5" t="s">
         <v>53</v>
       </c>
-      <c r="J5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <f>SYSC4810!E23</f>
@@ -1331,44 +1330,44 @@
         <v>A+</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>0</v>
+        <v>2.4599999999999997E-2</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
         <f>SYSC4805!E19</f>
-        <v>0.41950000000000004</v>
+        <v>0.93450000000000011</v>
       </c>
       <c r="D7" t="str">
         <f>LOOKUP(C7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G7" s="1">
         <f>'SYSC 4502'!F27</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1">
         <f>'ELEC 4705'!C14</f>
@@ -1379,20 +1378,20 @@
         <v>A+</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="1">
-        <f>'SYSC 4415'!F24</f>
-        <v>0</v>
+        <f>'SYSC 4415'!F32</f>
+        <v>4.7916666666666663E-2</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1">
         <f>'SYSC 4310'!E24</f>
@@ -1403,10 +1402,10 @@
         <v>A+</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="G9" s="1">
-        <f>'TSES 4012'!F30</f>
+        <f>'ECOR 4995'!F30</f>
         <v>0</v>
       </c>
       <c r="H9" t="str">
@@ -1414,9 +1413,9 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1">
         <f>'SYSC 4602'!E24</f>
@@ -1426,19 +1425,20 @@
         <f>LOOKUP(C10,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>A+</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1">
         <f>'SYSC 4907'!E25</f>
         <v>0</v>
       </c>
-      <c r="D11" t="str">
-        <f>LOOKUP(C11,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+      <c r="H10" t="str">
+        <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F42871C-6C37-4276-988F-E0CB1B38DC91}">
   <dimension ref="C2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>2</v>
@@ -1791,13 +1791,15 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
       <c r="E6" s="4">
         <v>0.03</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F10" si="0">D6*E6</f>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -1841,7 +1843,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
@@ -1863,7 +1865,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1923,7 +1925,7 @@
     </row>
     <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="4"/>
     </row>
@@ -1961,7 +1963,7 @@
       </c>
       <c r="F23" s="1">
         <f>(SUM(F11,F20)/E23)</f>
-        <v>4.1095890410958902E-2</v>
+        <v>8.2191780821917804E-2</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1998,7 @@
       </c>
       <c r="F27" s="1">
         <f>(F23*E23)+(D25*E25)</f>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H27" t="str">
         <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -2024,7 +2026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D25">
+  <conditionalFormatting sqref="D25 D19">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2042,10 +2044,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
-  <dimension ref="C2:H26"/>
+  <dimension ref="C2:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,51 +2152,66 @@
     </row>
     <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="11" t="s">
-        <v>105</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>58</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>0.05</v>
+        <f>$E$24/12</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F15" si="0">D12*E12</f>
-        <v>0</v>
+        <f t="shared" ref="F12:F23" si="0">D12*E12</f>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
       </c>
       <c r="E13" s="4">
-        <v>0.05</v>
+        <f t="shared" ref="E13:E23" si="1">$E$24/12</f>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>86</v>
+        <v>60</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.875</v>
       </c>
       <c r="E14" s="4">
-        <v>0.05</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4583333333333334E-2</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>87</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4">
-        <v>0.05</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
@@ -2203,88 +2220,204 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>41</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
-        <v>0.2</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F16" s="4">
-        <f>D16*E16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="11" t="s">
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>63</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <v>0.25</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F18" s="4">
-        <f>D18*E18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="10">
-        <f>SUM(E9,E16,E18)</f>
-        <v>0.65</v>
-      </c>
-      <c r="F20" s="1">
-        <f>(SUM(F9,F18)/E20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="11" t="s">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <f>1-E20</f>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="4">
+        <f>SUM(F12:F23)</f>
+        <v>4.7916666666666663E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="4">
+        <f>D26*E26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="10">
+        <f>SUM(E9,E24,E26)</f>
+        <v>0.65</v>
+      </c>
+      <c r="F28" s="1">
+        <f>(SUM(F9,F26,F24)/E28)</f>
+        <v>7.3717948717948706E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4">
+        <f>1-E28</f>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="23" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H23" s="12" t="s">
+      <c r="F30" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H31" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="11" t="s">
+    <row r="32" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="1">
-        <f>(F20*E20)+(F22*E22)</f>
-        <v>0</v>
-      </c>
-      <c r="H24" t="str">
-        <f>LOOKUP(F24,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+      <c r="F32" s="1">
+        <f>(F28*E28)+(D30*E30)</f>
+        <v>4.7916666666666663E-2</v>
+      </c>
+      <c r="H32" t="str">
+        <f>LOOKUP(F32,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D34" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D10 D18">
+  <conditionalFormatting sqref="D7:D10 D26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2296,7 +2429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 D22">
+  <conditionalFormatting sqref="D5:D6 D30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2329,7 +2462,7 @@
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2366,7 +2499,7 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
@@ -2380,7 +2513,7 @@
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -2394,7 +2527,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="10">
@@ -2408,7 +2541,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10">
@@ -2442,7 +2575,7 @@
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -2592,7 +2725,7 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="17">
@@ -2754,12 +2887,12 @@
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -2774,7 +2907,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="4">
         <v>0.85</v>
@@ -2789,7 +2922,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4">
@@ -2893,7 +3026,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
@@ -2909,7 +3042,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4">
@@ -3119,7 +3252,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="4">
         <v>0.93</v>
@@ -3134,7 +3267,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4">
         <v>0.91700000000000004</v>
@@ -3149,7 +3282,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" s="4">
         <v>1</v>
@@ -3465,7 +3598,7 @@
     </row>
     <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
@@ -3640,7 +3773,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -3656,7 +3789,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" s="4">
         <v>0.85</v>
@@ -3672,7 +3805,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4">
         <v>0.7142857142857143</v>
@@ -3772,7 +3905,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
@@ -3894,7 +4027,7 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,12 +4055,12 @@
     <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
@@ -3942,15 +4075,17 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
       <c r="D6" s="4">
         <v>0.1</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ref="E6:E8" si="0">C6*D6</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -3970,15 +4105,17 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>92</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
       <c r="D8" s="4">
         <v>0.1</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -3992,19 +4129,19 @@
       </c>
       <c r="E9" s="4">
         <f>SUM(E5:E8)</f>
-        <v>0.29200000000000004</v>
+        <v>0.49199999999999999</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="4">
         <v>0.73</v>
@@ -4019,7 +4156,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="4">
         <v>0.91</v>
@@ -4034,41 +4171,47 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.9</v>
+      </c>
       <c r="D14" s="4">
         <v>0.15</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>96</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.9</v>
+      </c>
       <c r="D15" s="4">
         <v>0.1</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.9</v>
+      </c>
       <c r="D16" s="4">
         <v>0.1</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -4081,7 +4224,7 @@
       </c>
       <c r="E17" s="10">
         <f>SUM(E12:E16)</f>
-        <v>0.1275</v>
+        <v>0.44250000000000006</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -4097,11 +4240,11 @@
       </c>
       <c r="E19" s="1">
         <f>SUM(E9,E17)</f>
-        <v>0.41950000000000004</v>
+        <v>0.93450000000000011</v>
       </c>
       <c r="F19" t="str">
         <f>LOOKUP(E19,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\googl\Documents\Anything Relevant\University\4th Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEDA3D7-B303-4FB8-970B-AA45E76453D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D0D61C-F5CB-417E-9A99-5C1CBBAA607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="10" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="3" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -880,20 +880,20 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -907,8 +907,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
@@ -916,7 +916,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -931,20 +931,22 @@
         <v>2.4599999999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
       <c r="E6" s="4">
         <v>0.03</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F10" si="0">D6*E6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -957,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -970,7 +972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -983,7 +985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>99</v>
       </c>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
@@ -1007,17 +1009,17 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>2.4599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>5.4599999999999996E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1056,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14" t="s">
         <v>55</v>
       </c>
@@ -1070,19 +1072,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1095,12 +1097,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>77</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
@@ -1123,11 +1125,11 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24)/E27)</f>
-        <v>3.7846153846153835E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.3999999999999977E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
@@ -1141,12 +1143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
@@ -1158,15 +1160,15 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>2.4599999999999997E-2</v>
+        <v>5.4599999999999996E-2</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -1247,21 +1249,21 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
       <c r="F25" t="str">
         <f>LOOKUP(E25,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C27" s="10"/>
     </row>
   </sheetData>
@@ -1274,22 +1276,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
   <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -1334,14 +1336,14 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>2.4599999999999997E-2</v>
+        <v>5.4599999999999996E-2</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -1382,14 +1384,14 @@
       </c>
       <c r="G8" s="1">
         <f>'SYSC 4415'!F32</f>
-        <v>4.7916666666666663E-2</v>
+        <v>0.13566666666666666</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
@@ -1457,147 +1459,147 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
         <f>AVERAGE(B2:B28)</f>
         <v>10.666666666666666</v>
@@ -1616,9 +1618,9 @@
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1626,7 +1628,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>0.5</v>
       </c>
@@ -1634,7 +1636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4">
         <v>0.53</v>
       </c>
@@ -1642,7 +1644,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4">
         <v>0.56999999999999995</v>
       </c>
@@ -1650,7 +1652,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="4">
         <v>0.6</v>
       </c>
@@ -1658,7 +1660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="4">
         <v>0.63</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="4">
         <v>0.67</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="4">
         <v>0.7</v>
       </c>
@@ -1682,7 +1684,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="4">
         <v>0.73</v>
       </c>
@@ -1690,7 +1692,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="4">
         <v>0.77</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="4">
         <v>0.8</v>
       </c>
@@ -1706,7 +1708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
         <v>0.85</v>
       </c>
@@ -1714,7 +1716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
         <v>0.9</v>
       </c>
@@ -1739,17 +1741,17 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1763,8 +1765,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
         <v>49</v>
       </c>
@@ -1772,7 +1774,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -1802,7 +1804,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>99</v>
       </c>
@@ -1854,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1868,13 +1870,13 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>43</v>
       </c>
@@ -1923,13 +1925,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>47</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
@@ -1966,8 +1968,8 @@
         <v>8.2191780821917804E-2</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
@@ -1981,12 +1983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H26" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="14" t="s">
         <v>15</v>
       </c>
@@ -2005,8 +2007,8 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -2026,7 +2028,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25 D19">
+  <conditionalFormatting sqref="D19 D25">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2047,20 +2049,20 @@
   <dimension ref="C2:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2074,26 +2076,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4">
+        <v>0.96</v>
+      </c>
       <c r="E5" s="4">
         <v>0.05</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -2106,7 +2110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -2119,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>20</v>
       </c>
@@ -2132,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>43</v>
       </c>
@@ -2143,20 +2147,20 @@
       </c>
       <c r="F9" s="4">
         <f>SUM(F5:F7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -2188,12 +2192,12 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>60</v>
       </c>
       <c r="D14" s="4">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -2201,66 +2205,72 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>1.4583333333333334E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.88</v>
+      </c>
       <c r="E15" s="4">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+        <v>1.4666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.88</v>
+      </c>
       <c r="E16" s="4">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.4666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
+        <f>$E$24/24</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+        <v>8.3333333333333332E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
+        <f>$E$24/24</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>64</v>
       </c>
@@ -2274,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>65</v>
       </c>
@@ -2288,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>67</v>
       </c>
@@ -2316,7 +2326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>68</v>
       </c>
@@ -2330,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>41</v>
       </c>
@@ -2340,10 +2350,10 @@
       </c>
       <c r="F24" s="4">
         <f>SUM(F12:F23)</f>
-        <v>4.7916666666666663E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.7666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="11" t="s">
         <v>14</v>
       </c>
@@ -2369,10 +2379,10 @@
       </c>
       <c r="F28" s="1">
         <f>(SUM(F9,F26,F24)/E28)</f>
-        <v>7.3717948717948706E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.20871794871794869</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11" t="s">
         <v>13</v>
       </c>
@@ -2385,12 +2395,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H31" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="11" t="s">
         <v>15</v>
       </c>
@@ -2402,14 +2412,14 @@
       </c>
       <c r="F32" s="1">
         <f>(F28*E28)+(D30*E30)</f>
-        <v>4.7916666666666663E-2</v>
+        <v>0.13566666666666666</v>
       </c>
       <c r="H32" t="str">
         <f>LOOKUP(F32,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -2417,8 +2427,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D10 D26">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D10">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2429,7 +2439,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 D30">
+  <conditionalFormatting sqref="D5:D9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2441,8 +2463,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D26">
     <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2461,21 +2495,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
   <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2489,14 +2523,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>108</v>
@@ -2510,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>109</v>
@@ -2524,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>110</v>
@@ -2538,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>111</v>
@@ -2552,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="6"/>
       <c r="C9" s="14" t="s">
         <v>57</v>
@@ -2567,19 +2601,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>58</v>
@@ -2593,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -2606,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>60</v>
       </c>
@@ -2619,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>61</v>
       </c>
@@ -2632,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>62</v>
       </c>
@@ -2645,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>63</v>
       </c>
@@ -2658,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -2671,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>65</v>
       </c>
@@ -2684,7 +2718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -2697,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>67</v>
       </c>
@@ -2710,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>68</v>
       </c>
@@ -2723,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>107</v>
       </c>
@@ -2736,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="14" t="s">
         <v>69</v>
       </c>
@@ -2749,8 +2783,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
@@ -2766,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
@@ -2776,12 +2810,12 @@
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H29" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="11" t="s">
         <v>15</v>
       </c>
@@ -2862,15 +2896,15 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2884,13 +2918,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -2905,7 +2939,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -2920,7 +2954,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -2934,17 +2968,17 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +2994,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2976,7 +3010,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -2992,7 +3026,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -3008,7 +3042,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -3024,7 +3058,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>99</v>
       </c>
@@ -3040,7 +3074,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -3053,16 +3087,16 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -3077,10 +3111,10 @@
         <v>0.18400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -3096,10 +3130,10 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -3115,7 +3149,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -3134,7 +3168,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -3192,15 +3226,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3214,13 +3248,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3235,7 +3269,7 @@
         <v>0.10552499999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3284,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>81</v>
       </c>
@@ -3265,7 +3299,7 @@
         <v>0.10462500000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>82</v>
       </c>
@@ -3280,7 +3314,7 @@
         <v>0.1031625</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -3295,7 +3329,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -3309,7 +3343,7 @@
         <v>0.47581249999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3325,10 +3359,10 @@
         <v>0.95162499999999994</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3344,7 +3378,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -3363,7 +3397,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -3371,15 +3405,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
@@ -3434,15 +3468,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3456,13 +3490,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3478,7 +3512,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3528,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3510,7 +3544,7 @@
         <v>4.8250000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3524,18 +3558,18 @@
         <v>0.14065</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -3551,7 +3585,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -3567,7 +3601,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -3583,7 +3617,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -3596,12 +3630,12 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -3616,7 +3650,7 @@
         <v>0.24899999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
@@ -3630,7 +3664,7 @@
         <v>0.89941666666666642</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3646,7 +3680,7 @@
         <v>0.3919999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -3665,7 +3699,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -3711,15 +3745,15 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3733,13 +3767,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -3755,7 +3789,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -3771,7 +3805,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>85</v>
       </c>
@@ -3787,7 +3821,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>86</v>
       </c>
@@ -3803,7 +3837,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -3818,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -3830,7 +3864,7 @@
         <v>0.17861111111111114</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
@@ -3838,7 +3872,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -3855,7 +3889,7 @@
         <v>4.6071428571428569E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3871,7 +3905,7 @@
         <v>5.3500000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -3887,7 +3921,7 @@
         <v>4.6150000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -3903,7 +3937,7 @@
         <v>4.7780000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -3918,7 +3952,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -3932,7 +3966,7 @@
         <v>0.29350142857142858</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -3948,7 +3982,7 @@
         <v>0.94422507936507949</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -3964,10 +3998,10 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -3984,7 +4018,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -4030,15 +4064,15 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -4052,13 +4086,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -4073,7 +4107,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -4088,7 +4122,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -4103,7 +4137,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -4118,7 +4152,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -4132,14 +4166,14 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -4154,7 +4188,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -4169,7 +4203,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -4184,7 +4218,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -4199,7 +4233,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>97</v>
       </c>
@@ -4214,7 +4248,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -4227,7 +4261,7 @@
         <v>0.44250000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -4247,7 +4281,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>45</v>
       </c>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\googl\Documents\Anything Relevant\University\4th Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36D0D61C-F5CB-417E-9A99-5C1CBBAA607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC0FC4-6CF6-44E0-A527-DDE41D69C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="3" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
   <si>
     <t>Deliverable Name</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>Weekly Reflections</t>
-  </si>
-  <si>
-    <t>Week 13</t>
   </si>
   <si>
     <t>Essay 1</t>
@@ -879,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40B08C-6FC0-4384-833D-8D5890E86605}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,26 +947,30 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="4">
         <v>0.03</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
       <c r="E8" s="4">
         <v>0.03</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>5.4599999999999996E-2</v>
+        <v>0.11459999999999999</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1023,13 +1024,15 @@
       <c r="C14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>0.92</v>
+      </c>
       <c r="E14" s="4">
         <v>0.03</v>
       </c>
       <c r="F14" s="4">
         <f>D14*E14</f>
-        <v>0</v>
+        <v>2.76E-2</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
@@ -1041,7 +1044,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" ref="F15:F16" si="1">D15*E15</f>
+        <f>D15*E15</f>
         <v>0</v>
       </c>
     </row>
@@ -1054,7 +1057,7 @@
         <v>0.12</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="F16" si="1">D16*E16</f>
         <v>0</v>
       </c>
     </row>
@@ -1069,7 +1072,7 @@
       </c>
       <c r="F17" s="4">
         <f>SUM(F14:F16)</f>
-        <v>0</v>
+        <v>2.76E-2</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -1088,13 +1091,15 @@
       <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>0.89</v>
+      </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4">
         <f>D22*E22</f>
-        <v>0</v>
+        <v>0.17800000000000002</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
@@ -1124,8 +1129,8 @@
         <v>0.65000000000000013</v>
       </c>
       <c r="F27" s="1">
-        <f>(SUM(F11,F17,F24)/E27)</f>
-        <v>8.3999999999999977E-2</v>
+        <f>(SUM(F11,F17,F24,F22)/E27)</f>
+        <v>0.49261538461538457</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1160,7 +1165,7 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>5.4599999999999996E-2</v>
+        <v>0.32020000000000004</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1336,7 +1341,7 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>5.4599999999999996E-2</v>
+        <v>0.32020000000000004</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1360,7 +1365,7 @@
       </c>
       <c r="G7" s="1">
         <f>'SYSC 4502'!F27</f>
-        <v>0.06</v>
+        <v>0.36614285714285721</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1383,8 +1388,8 @@
         <v>104</v>
       </c>
       <c r="G8" s="1">
-        <f>'SYSC 4415'!F32</f>
-        <v>0.13566666666666666</v>
+        <f>'SYSC 4415'!F31</f>
+        <v>0.37899166666666662</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1404,15 +1409,15 @@
         <v>A+</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" s="1">
         <f>'ECOR 4995'!F30</f>
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="H9" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D+</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
@@ -1436,7 +1441,7 @@
       </c>
       <c r="H10" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D+</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -1737,8 +1742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F42871C-6C37-4276-988F-E0CB1B38DC91}">
   <dimension ref="C2:H29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1808,26 +1813,30 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="4">
         <v>0.03</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
       <c r="E8" s="4">
         <v>0.03</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
@@ -1867,43 +1876,53 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="4"/>
+    </row>
     <row r="13" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="11" t="s">
         <v>50</v>
       </c>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>17</v>
       </c>
+      <c r="D14" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E14" s="4">
         <v>0.03</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F16" si="1">D14*E14</f>
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>18</v>
       </c>
+      <c r="D15" s="4">
+        <v>0.9</v>
+      </c>
       <c r="E15" s="4">
         <v>0.05</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5000000000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -1916,14 +1935,18 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="10">
         <f>SUM(E14:E16)</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="F17" s="4">
         <f>SUM(F14:F16)</f>
-        <v>0</v>
-      </c>
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="11" t="s">
@@ -1935,6 +1958,10 @@
       <c r="C20" t="s">
         <v>47</v>
       </c>
+      <c r="D20" s="4">
+        <f>31/35</f>
+        <v>0.88571428571428568</v>
+      </c>
       <c r="E20" s="4">
         <v>0.2</v>
       </c>
@@ -1947,12 +1974,13 @@
       <c r="C21" t="s">
         <v>48</v>
       </c>
+      <c r="D21" s="4"/>
       <c r="E21" s="4">
         <v>0.2</v>
       </c>
       <c r="F21" s="4">
         <f>D20*E21</f>
-        <v>0</v>
+        <v>0.17714285714285716</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1964,8 +1992,8 @@
         <v>0.73</v>
       </c>
       <c r="F23" s="1">
-        <f>(SUM(F11,F20)/E23)</f>
-        <v>8.2191780821917804E-2</v>
+        <f>(SUM(F11,F17,F20:F21)/E23)</f>
+        <v>0.50156555772994138</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1984,6 +2012,7 @@
       </c>
     </row>
     <row r="26" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D26" s="4"/>
       <c r="H26" s="12" t="s">
         <v>15</v>
       </c>
@@ -2000,7 +2029,7 @@
       </c>
       <c r="F27" s="1">
         <f>(F23*E23)+(D25*E25)</f>
-        <v>0.06</v>
+        <v>0.36614285714285721</v>
       </c>
       <c r="H27" t="str">
         <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -2017,7 +2046,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="D5:D11">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2028,8 +2057,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19 D25">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D21">
     <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:D21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="45"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2046,10 +2111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
-  <dimension ref="C2:H34"/>
+  <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2125,66 +2190,69 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="4">
-        <v>0.05</v>
+      <c r="E8" s="10">
+        <f>20%</f>
+        <v>0.2</v>
       </c>
       <c r="F8" s="4">
-        <f>D8*E8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="10">
-        <f>SUM(E5:E8)</f>
-        <v>0.2</v>
-      </c>
-      <c r="F9" s="4">
         <f>SUM(F5:F7)</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="4"/>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <f>$E$23/12</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" ref="F11:F22" si="0">D11*E11</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f>$E$24/12</f>
+        <f t="shared" ref="E12:E22" si="1">$E$23/12</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" ref="F12:F23" si="0">D12*E12</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" ref="E13:E23" si="1">$E$24/12</f>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F13" s="4">
@@ -2194,10 +2262,10 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" si="1"/>
@@ -2205,12 +2273,12 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
-        <v>1.6666666666666666E-2</v>
+        <v>1.4666666666666666E-2</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4">
         <v>0.88</v>
@@ -2226,29 +2294,29 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D16" s="4">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
+        <f>$E$23/24</f>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>1.4666666666666666E-2</v>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <f>$E$24/24</f>
+        <f>$E$23/24</f>
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F17" s="4">
@@ -2258,21 +2326,23 @@
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.88</v>
+      </c>
       <c r="E18" s="4">
-        <f>$E$24/24</f>
-        <v>8.3333333333333332E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4666666666666666E-2</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4">
@@ -2286,7 +2356,7 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4">
@@ -2300,7 +2370,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4">
@@ -2314,7 +2384,7 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
@@ -2328,106 +2398,94 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
+        <v>0.2</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="4">
-        <f>SUM(F12:F23)</f>
-        <v>8.7666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C26" s="11" t="s">
+        <f>SUM(F11:F22)</f>
+        <v>0.11066666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4">
+      <c r="D25" s="4">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="E25" s="4">
         <v>0.25</v>
       </c>
-      <c r="F26" s="4">
-        <f>D26*E26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="11" t="s">
+      <c r="F25" s="4">
+        <f>D25*E25</f>
+        <v>0.22032499999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="10">
-        <f>SUM(E9,E24,E26)</f>
+      <c r="E27" s="10">
+        <f>SUM(E8,E23,E25)</f>
         <v>0.65</v>
       </c>
-      <c r="F28" s="1">
-        <f>(SUM(F9,F26,F24)/E28)</f>
-        <v>0.20871794871794869</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C30" s="11" t="s">
+      <c r="F27" s="1">
+        <f>(SUM(F8,F25,F23)/E27)</f>
+        <v>0.58306410256410246</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4">
-        <f>1-E28</f>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4">
+        <f>1-E27</f>
         <v>0.35</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H31" s="12" t="s">
+    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="11" t="s">
+    <row r="31" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="1">
-        <f>(F28*E28)+(D30*E30)</f>
-        <v>0.13566666666666666</v>
-      </c>
-      <c r="H32" t="str">
-        <f>LOOKUP(F32,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+      <c r="F31" s="1">
+        <f>(F27*E27)+(D29*E29)</f>
+        <v>0.37899166666666662</v>
+      </c>
+      <c r="H31" t="str">
+        <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D5:D9">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2439,19 +2497,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percentile" val="45"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D24">
+  <conditionalFormatting sqref="D11:D23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2463,7 +2509,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
+  <conditionalFormatting sqref="D25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2475,7 +2521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2496,7 +2542,7 @@
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2533,21 +2579,23 @@
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.93</v>
+      </c>
       <c r="E5" s="4">
         <v>0.2</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>0</v>
+        <v>0.18600000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -2561,21 +2609,23 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="10">
         <v>0.02</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="10">
@@ -2598,7 +2648,7 @@
       </c>
       <c r="F9" s="4">
         <f>SUM(F5:F7)</f>
-        <v>0</v>
+        <v>0.20600000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -2618,83 +2668,95 @@
       <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
       <c r="E12" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="4">
         <f>D12*E12</f>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
       <c r="E13" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" ref="F13:F22" si="1">D13*E13</f>
-        <v>0</v>
+        <f t="shared" ref="F13:F23" si="1">D13*E13</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
       <c r="E14" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
       <c r="E15" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
       <c r="E16" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
       <c r="E17" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="F17" si="2">D17*E17</f>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="17">
@@ -2707,7 +2769,7 @@
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="17">
@@ -2720,7 +2782,7 @@
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="17">
@@ -2733,7 +2795,7 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="17">
@@ -2746,7 +2808,7 @@
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="17">
@@ -2759,14 +2821,14 @@
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" ref="F23" si="2">D23*E23</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2780,7 +2842,7 @@
       </c>
       <c r="F24" s="4">
         <f>SUM(F12:F23)</f>
-        <v>0</v>
+        <v>3.0000000000000002E-2</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -2797,7 +2859,7 @@
       </c>
       <c r="F26" s="1">
         <f>(SUM(F9,F24)/E26)</f>
-        <v>0</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2827,11 +2889,11 @@
       </c>
       <c r="F30" s="1">
         <f>SUM(F26,F27)</f>
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="H30" t="str">
         <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D+</v>
       </c>
     </row>
   </sheetData>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\googl\Documents\Anything Relevant\University\4th Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC0FC4-6CF6-44E0-A527-DDE41D69C567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6D63E-5862-46BD-AA11-93AA7201C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" activeTab="3" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -876,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40B08C-6FC0-4384-833D-8D5890E86605}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1092,14 +1092,15 @@
         <v>24</v>
       </c>
       <c r="D22" s="4">
-        <v>0.89</v>
+        <f>18.5/20</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="E22" s="4">
         <v>0.2</v>
       </c>
       <c r="F22" s="4">
         <f>D22*E22</f>
-        <v>0.17800000000000002</v>
+        <v>0.18500000000000003</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
@@ -1130,7 +1131,7 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24,F22)/E27)</f>
-        <v>0.49261538461538457</v>
+        <v>0.50338461538461532</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
@@ -1165,7 +1166,7 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.32020000000000004</v>
+        <v>0.32720000000000005</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1341,7 +1342,7 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>0.32020000000000004</v>
+        <v>0.32720000000000005</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -2541,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
   <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\googl\Documents\Anything Relevant\University\4th Year\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD6D63E-5862-46BD-AA11-93AA7201C175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7DC6C7-AB45-4A80-B41E-9492C5F25E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="22200" yWindow="0" windowWidth="16200" windowHeight="21000" tabRatio="769" activeTab="10" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -876,21 +876,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40B08C-6FC0-4384-833D-8D5890E86605}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -904,8 +904,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
@@ -913,22 +913,22 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="E5" s="4">
         <v>0.03</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>2.4599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+        <v>2.64E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -958,22 +958,22 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="E8" s="4">
         <v>0.03</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+        <v>2.76E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>99</v>
       </c>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
@@ -1010,17 +1010,17 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.11459999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14" t="s">
         <v>55</v>
       </c>
@@ -1075,19 +1075,19 @@
         <v>2.76E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>24</v>
       </c>
@@ -1103,12 +1103,12 @@
         <v>0.18500000000000003</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>77</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
@@ -1131,11 +1131,11 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24,F22)/E27)</f>
-        <v>0.50338461538461532</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.5024615384615384</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
@@ -1149,12 +1149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="14" t="s">
         <v>15</v>
       </c>
@@ -1166,15 +1166,15 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.32720000000000005</v>
+        <v>0.32660000000000006</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="32" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -1255,21 +1255,21 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F25" t="str">
         <f>LOOKUP(E25,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="10"/>
     </row>
   </sheetData>
@@ -1282,22 +1282,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
   <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>52</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>70</v>
       </c>
@@ -1342,14 +1342,14 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>0.32720000000000005</v>
+        <v>0.32660000000000006</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>71</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>72</v>
       </c>
@@ -1390,14 +1390,14 @@
       </c>
       <c r="G8" s="1">
         <f>'SYSC 4415'!F31</f>
-        <v>0.37899166666666662</v>
+        <v>0.39149166666666663</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -1414,14 +1414,14 @@
       </c>
       <c r="G9" s="1">
         <f>'ECOR 4995'!F30</f>
-        <v>0.59</v>
+        <v>0.251</v>
       </c>
       <c r="H9" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D+</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>73</v>
       </c>
@@ -1442,10 +1442,10 @@
       </c>
       <c r="H10" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D+</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
   </sheetData>
@@ -1465,147 +1465,147 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="16">
         <f>AVERAGE(B2:B28)</f>
         <v>10.666666666666666</v>
@@ -1624,9 +1624,9 @@
       <selection activeCell="C3" sqref="C3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>0</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>0.5</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>0.53</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>0.56999999999999995</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>0.6</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>0.63</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>0.67</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>0.7</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>0.73</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>0.77</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>0.8</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>0.85</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>0.9</v>
       </c>
@@ -1747,17 +1747,17 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -1771,8 +1771,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
         <v>49</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>99</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
@@ -1880,16 +1880,16 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>4.5000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>43</v>
       </c>
@@ -1946,16 +1946,16 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>47</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>48</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0.17714285714285716</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
@@ -1997,8 +1997,8 @@
         <v>0.50156555772994138</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>13</v>
       </c>
@@ -2012,13 +2012,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="4"/>
       <c r="H26" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
         <v>15</v>
       </c>
@@ -2037,8 +2037,8 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>45</v>
       </c>
@@ -2114,21 +2114,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2142,13 +2142,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>17</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>43</v>
       </c>
@@ -2203,17 +2203,17 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="11" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>60</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>61</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>62</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>111</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>63</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>64</v>
       </c>
@@ -2341,21 +2341,23 @@
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>0.75</v>
+      </c>
       <c r="E19" s="4">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>67</v>
       </c>
@@ -2383,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>68</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
@@ -2407,10 +2409,10 @@
       </c>
       <c r="F23" s="4">
         <f>SUM(F11:F22)</f>
-        <v>0.11066666666666665</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.12316666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C25" s="11" t="s">
         <v>24</v>
       </c>
@@ -2425,7 +2427,7 @@
         <v>0.22032499999999999</v>
       </c>
     </row>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>14</v>
       </c>
@@ -2438,10 +2440,10 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F8,F25,F23)/E27)</f>
-        <v>0.58306410256410246</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.60229487179487173</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
@@ -2454,12 +2456,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H30" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
@@ -2471,14 +2473,14 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.37899166666666662</v>
+        <v>0.39149166666666663</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>45</v>
       </c>
@@ -2543,20 +2545,20 @@
   <dimension ref="B2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.109375" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2570,14 +2572,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" t="s">
         <v>107</v>
@@ -2593,7 +2595,7 @@
         <v>0.18600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>108</v>
@@ -2607,7 +2609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" t="s">
         <v>109</v>
@@ -2623,7 +2625,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" t="s">
         <v>110</v>
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="14" t="s">
         <v>57</v>
@@ -2652,19 +2654,19 @@
         <v>0.20600000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
         <v>106</v>
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" t="s">
         <v>58</v>
@@ -2680,7 +2682,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>60</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>61</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>62</v>
       </c>
@@ -2740,7 +2742,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>111</v>
       </c>
@@ -2755,46 +2757,52 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
       <c r="E18" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
       <c r="E19" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
       <c r="E20" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>67</v>
       </c>
@@ -2820,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>68</v>
       </c>
@@ -2833,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
         <v>69</v>
       </c>
@@ -2843,11 +2851,11 @@
       </c>
       <c r="F24" s="4">
         <f>SUM(F12:F23)</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
@@ -2860,10 +2868,10 @@
       </c>
       <c r="F26" s="1">
         <f>(SUM(F9,F24)/E26)</f>
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.62749999999999984</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
@@ -2873,12 +2881,12 @@
         <v>0.59999999999999987</v>
       </c>
     </row>
-    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="11" t="s">
         <v>15</v>
       </c>
@@ -2889,12 +2897,12 @@
         <v>16</v>
       </c>
       <c r="F30" s="1">
-        <f>SUM(F26,F27)</f>
-        <v>0.59</v>
+        <f>SUM(F26*E26,F27*E27)</f>
+        <v>0.251</v>
       </c>
       <c r="H30" t="str">
         <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D+</v>
+        <v>F</v>
       </c>
     </row>
   </sheetData>
@@ -2959,15 +2967,15 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2981,13 +2989,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>77</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -3017,7 +3025,7 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>80</v>
       </c>
@@ -3031,17 +3039,17 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -3057,7 +3065,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +3081,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -3089,7 +3097,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3113,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -3121,7 +3129,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>99</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>79</v>
       </c>
@@ -3150,16 +3158,16 @@
         <v>9.9999999999999992E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -3174,10 +3182,10 @@
         <v>0.18400000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -3193,10 +3201,10 @@
         <v>0.93799999999999994</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
@@ -3212,7 +3220,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>45</v>
       </c>
@@ -3289,15 +3297,15 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3311,13 +3319,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>0.10552499999999999</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -3347,7 +3355,7 @@
         <v>0.1125</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>81</v>
       </c>
@@ -3362,7 +3370,7 @@
         <v>0.10462500000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>82</v>
       </c>
@@ -3377,7 +3385,7 @@
         <v>0.1031625</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>83</v>
       </c>
@@ -3392,7 +3400,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -3406,7 +3414,7 @@
         <v>0.47581249999999997</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3422,10 +3430,10 @@
         <v>0.95162499999999994</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -3441,7 +3449,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -3460,7 +3468,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>45</v>
       </c>
@@ -3468,15 +3476,15 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1"/>
@@ -3531,15 +3539,15 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3553,13 +3561,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>4.9500000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +3599,7 @@
         <v>4.2900000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>4.8250000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
@@ -3621,18 +3629,18 @@
         <v>0.14065</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -3648,7 +3656,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -3664,7 +3672,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3688,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -3693,12 +3701,12 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -3713,7 +3721,7 @@
         <v>0.24899999999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>0.89941666666666642</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -3743,7 +3751,7 @@
         <v>0.3919999999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -3762,7 +3770,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>44</v>
       </c>
@@ -3808,15 +3816,15 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -3830,13 +3838,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>21</v>
       </c>
@@ -3852,7 +3860,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>22</v>
       </c>
@@ -3868,7 +3876,7 @@
         <v>3.6111111111111115E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>85</v>
       </c>
@@ -3884,7 +3892,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>86</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>87</v>
       </c>
@@ -3915,7 +3923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>46</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>0.17861111111111114</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
@@ -3935,7 +3943,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -3952,7 +3960,7 @@
         <v>4.6071428571428569E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -3968,7 +3976,7 @@
         <v>5.3500000000000006E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -3984,7 +3992,7 @@
         <v>4.6150000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>42</v>
       </c>
@@ -4000,7 +4008,7 @@
         <v>4.7780000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>84</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>46</v>
       </c>
@@ -4029,7 +4037,7 @@
         <v>0.29350142857142858</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
@@ -4045,7 +4053,7 @@
         <v>0.94422507936507949</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -4061,10 +4069,10 @@
         <v>0.45500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>15</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>44</v>
       </c>
@@ -4127,15 +4135,15 @@
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
@@ -4149,13 +4157,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -4170,7 +4178,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -4185,7 +4193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
@@ -4200,7 +4208,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>92</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -4229,14 +4237,14 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>3.6499999999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>94</v>
       </c>
@@ -4266,7 +4274,7 @@
         <v>9.1000000000000011E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>95</v>
       </c>
@@ -4281,7 +4289,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>96</v>
       </c>
@@ -4296,7 +4304,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>97</v>
       </c>
@@ -4311,7 +4319,7 @@
         <v>9.0000000000000011E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>46</v>
       </c>
@@ -4324,7 +4332,7 @@
         <v>0.44250000000000006</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>15</v>
       </c>
@@ -4344,7 +4352,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>45</v>
       </c>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7DC6C7-AB45-4A80-B41E-9492C5F25E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B06702-B0E0-4803-BC03-0C81511D25AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22200" yWindow="0" windowWidth="16200" windowHeight="21000" tabRatio="769" activeTab="10" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="769" activeTab="3" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -1282,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
   <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1366,11 +1366,11 @@
       </c>
       <c r="G7" s="1">
         <f>'SYSC 4502'!F27</f>
-        <v>0.36614285714285721</v>
+        <v>0.57614285714285718</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D+</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G9" s="1">
         <f>'ECOR 4995'!F30</f>
-        <v>0.251</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="H9" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1744,7 +1744,7 @@
   <dimension ref="C2:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,13 +1844,15 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
       <c r="E9" s="4">
         <v>0.03</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
@@ -1877,7 +1879,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1967,21 +1969,23 @@
         <v>0.2</v>
       </c>
       <c r="F20" s="4">
-        <f>D19*E20</f>
-        <v>0</v>
+        <f>D20*E20</f>
+        <v>0.17714285714285716</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.9</v>
+      </c>
       <c r="E21" s="4">
         <v>0.2</v>
       </c>
       <c r="F21" s="4">
-        <f>D20*E21</f>
-        <v>0.17714285714285716</v>
+        <f>D21*E21</f>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1994,7 +1998,7 @@
       </c>
       <c r="F23" s="1">
         <f>(SUM(F11,F17,F20:F21)/E23)</f>
-        <v>0.50156555772994138</v>
+        <v>0.78923679060665364</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2030,11 +2034,11 @@
       </c>
       <c r="F27" s="1">
         <f>(F23*E23)+(D25*E25)</f>
-        <v>0.36614285714285721</v>
+        <v>0.57614285714285718</v>
       </c>
       <c r="H27" t="str">
         <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D+</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2115,7 +2119,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2544,8 +2548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
   <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,13 +2604,15 @@
       <c r="C6" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.9</v>
+      </c>
       <c r="E6" s="4">
         <v>0.1</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ref="F6:F8" si="0">D6*E6</f>
-        <v>0</v>
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -2651,7 +2657,7 @@
       </c>
       <c r="F9" s="4">
         <f>SUM(F5:F7)</f>
-        <v>0.20600000000000002</v>
+        <v>0.29600000000000004</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2868,7 +2874,7 @@
       </c>
       <c r="F26" s="1">
         <f>(SUM(F9,F24)/E26)</f>
-        <v>0.62749999999999984</v>
+        <v>0.85249999999999992</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2898,7 +2904,7 @@
       </c>
       <c r="F30" s="1">
         <f>SUM(F26*E26,F27*E27)</f>
-        <v>0.251</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="H30" t="str">
         <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B06702-B0E0-4803-BC03-0C81511D25AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2FBD4-2F28-4F16-9355-EA8A36F2912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="769" activeTab="3" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="10" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -877,7 +877,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +977,15 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
       <c r="E9" s="4">
         <v>0.03</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
@@ -1010,7 +1012,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.114</v>
+        <v>0.14400000000000002</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1112,13 +1114,16 @@
       <c r="C24" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4">
+        <f>4.35/5</f>
+        <v>0.86999999999999988</v>
+      </c>
       <c r="E24" s="10">
         <v>0.05</v>
       </c>
       <c r="F24" s="4">
         <f>D24*E24</f>
-        <v>0</v>
+        <v>4.3499999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1131,7 +1136,7 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24,F22)/E27)</f>
-        <v>0.5024615384615384</v>
+        <v>0.61553846153846148</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1171,7 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.32660000000000006</v>
+        <v>0.40010000000000007</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1282,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
   <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,7 +1347,7 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>0.32660000000000006</v>
+        <v>0.40010000000000007</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1366,11 +1371,11 @@
       </c>
       <c r="G7" s="1">
         <f>'SYSC 4502'!F27</f>
-        <v>0.57614285714285718</v>
+        <v>0.64114285714285724</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D+</v>
+        <v>C</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1390,11 +1395,11 @@
       </c>
       <c r="G8" s="1">
         <f>'SYSC 4415'!F31</f>
-        <v>0.39149166666666663</v>
+        <v>0.52165833333333333</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D-</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1414,7 +1419,7 @@
       </c>
       <c r="G9" s="1">
         <f>'ECOR 4995'!F30</f>
-        <v>0.34100000000000003</v>
+        <v>0.35100000000000003</v>
       </c>
       <c r="H9" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1441,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="str">
-        <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
+        <f>LOOKUP(G10,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
@@ -1744,7 +1749,7 @@
   <dimension ref="C2:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,13 +1864,15 @@
       <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
       <c r="E10" s="4">
         <v>0.03</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1879,7 +1886,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1925,13 +1932,15 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -1945,7 +1954,7 @@
       </c>
       <c r="F17" s="4">
         <f>SUM(F14:F16)</f>
-        <v>6.9000000000000006E-2</v>
+        <v>0.10400000000000001</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
@@ -1998,7 +2007,7 @@
       </c>
       <c r="F23" s="1">
         <f>(SUM(F11,F17,F20:F21)/E23)</f>
-        <v>0.78923679060665364</v>
+        <v>0.87827788649706473</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2034,11 +2043,11 @@
       </c>
       <c r="F27" s="1">
         <f>(F23*E23)+(D25*E25)</f>
-        <v>0.57614285714285718</v>
+        <v>0.64114285714285724</v>
       </c>
       <c r="H27" t="str">
         <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D+</v>
+        <v>C</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2119,7 +2128,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,24 +2169,28 @@
         <v>0.96</v>
       </c>
       <c r="E5" s="4">
-        <v>0.05</v>
+        <f>$E$8/3</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E6" s="4">
-        <v>0.05</v>
+        <f t="shared" ref="E6:E7" si="0">$E$8/3</f>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F6" s="4">
         <f>D6*E6</f>
-        <v>0</v>
+        <v>5.3333333333333337E-2</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -2186,7 +2199,8 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
-        <v>0.05</v>
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="F7" s="4">
         <f>D7*E7</f>
@@ -2204,7 +2218,7 @@
       </c>
       <c r="F8" s="4">
         <f>SUM(F5:F7)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>0.11733333333333335</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -2229,7 +2243,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:F22" si="0">D11*E11</f>
+        <f t="shared" ref="F11:F22" si="1">D11*E11</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2241,11 +2255,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:E22" si="1">$E$23/12</f>
+        <f t="shared" ref="E12:E22" si="2">$E$23/12</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2257,11 +2271,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F13" s="4">
-        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2273,11 +2287,11 @@
         <v>0.88</v>
       </c>
       <c r="E14" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2289,11 +2303,11 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2309,7 +2323,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -2325,7 +2339,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -2337,11 +2351,11 @@
         <v>0.88</v>
       </c>
       <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2353,11 +2367,11 @@
         <v>0.75</v>
       </c>
       <c r="E19" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -2365,55 +2379,63 @@
       <c r="C20" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4">
+        <v>0.88</v>
+      </c>
       <c r="E20" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F20" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4666666666666666E-2</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>0.88</v>
+      </c>
       <c r="E21" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F21" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4666666666666666E-2</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
       <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="F22" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>0.92</v>
+      </c>
       <c r="E23" s="4">
         <v>0.2</v>
       </c>
       <c r="F23" s="4">
-        <f>SUM(F11:F22)</f>
-        <v>0.12316666666666665</v>
+        <f>D23*E23</f>
+        <v>0.18400000000000002</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2444,7 +2466,7 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F8,F25,F23)/E27)</f>
-        <v>0.60229487179487173</v>
+        <v>0.80255128205128201</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2477,11 +2499,11 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.39149166666666663</v>
+        <v>0.52165833333333333</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>D-</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -2548,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
   <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,26 +2834,30 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
       <c r="E21" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
       <c r="E22" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.25">
@@ -2857,7 +2883,7 @@
       </c>
       <c r="F24" s="4">
         <f>SUM(F12:F23)</f>
-        <v>4.4999999999999998E-2</v>
+        <v>5.4999999999999993E-2</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2900,7 @@
       </c>
       <c r="F26" s="1">
         <f>(SUM(F9,F24)/E26)</f>
-        <v>0.85249999999999992</v>
+        <v>0.87749999999999995</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2904,7 +2930,7 @@
       </c>
       <c r="F30" s="1">
         <f>SUM(F26*E26,F27*E27)</f>
-        <v>0.34100000000000003</v>
+        <v>0.35100000000000003</v>
       </c>
       <c r="H30" t="str">
         <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE2FBD4-2F28-4F16-9355-EA8A36F2912D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C6BD2-28F8-408A-BF41-F9280166530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="10" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="2" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
   <si>
     <t>Deliverable Name</t>
   </si>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -524,7 +524,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -884,7 +883,7 @@
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -992,13 +991,15 @@
       <c r="C10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
       <c r="E10" s="4">
         <v>0.03</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,7 +1013,7 @@
       </c>
       <c r="F11" s="4">
         <f>SUM(F5:F10)</f>
-        <v>0.14400000000000002</v>
+        <v>0.17400000000000002</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1137,7 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24,F22)/E27)</f>
-        <v>0.61553846153846148</v>
+        <v>0.66169230769230758</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1172,7 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.40010000000000007</v>
+        <v>0.43010000000000004</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1183,12 +1184,14 @@
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>0.86</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D11 D13:D18">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D5:D6 D29 D21">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -1199,8 +1202,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D6 D29 D21">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="D7:D11 D13:D18">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -1223,8 +1226,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D17">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -1235,8 +1238,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -1287,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA2906D-355B-40D1-B17C-83040ED7030E}">
   <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1350,7 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>0.40010000000000007</v>
+        <v>0.43010000000000004</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1371,11 +1374,11 @@
       </c>
       <c r="G7" s="1">
         <f>'SYSC 4502'!F27</f>
-        <v>0.64114285714285724</v>
+        <v>0.67614285714285716</v>
       </c>
       <c r="H7" t="str">
         <f>LOOKUP(G7,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>C</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1395,11 +1398,11 @@
       </c>
       <c r="G8" s="1">
         <f>'SYSC 4415'!F31</f>
-        <v>0.52165833333333333</v>
+        <v>0.9139250000000001</v>
       </c>
       <c r="H8" t="str">
         <f>LOOKUP(G8,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D-</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="G9" s="1">
         <f>'ECOR 4995'!F30</f>
-        <v>0.35100000000000003</v>
+        <v>0.37600000000000006</v>
       </c>
       <c r="H9" t="str">
         <f>LOOKUP(G9,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
@@ -1749,7 +1752,7 @@
   <dimension ref="C2:H29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,14 +1936,14 @@
         <v>19</v>
       </c>
       <c r="D16" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" si="1"/>
-        <v>3.5000000000000003E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -1954,7 +1957,7 @@
       </c>
       <c r="F17" s="4">
         <f>SUM(F14:F16)</f>
-        <v>0.10400000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
@@ -2007,7 +2010,7 @@
       </c>
       <c r="F23" s="1">
         <f>(SUM(F11,F17,F20:F21)/E23)</f>
-        <v>0.87827788649706473</v>
+        <v>0.92622309197651664</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2043,11 +2046,11 @@
       </c>
       <c r="F27" s="1">
         <f>(F23*E23)+(D25*E25)</f>
-        <v>0.64114285714285724</v>
+        <v>0.67614285714285716</v>
       </c>
       <c r="H27" t="str">
         <f>LOOKUP(F27,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>C</v>
+        <v>C+</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2055,7 +2058,9 @@
       <c r="C29" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="10">
+        <v>0.83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2071,8 +2076,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="D5:D21">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2083,8 +2088,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D21">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2127,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,12 +2174,11 @@
         <v>0.96</v>
       </c>
       <c r="E5" s="4">
-        <f>$E$8/3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F5" s="4">
         <f>D5*E5</f>
-        <v>6.4000000000000001E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -2185,26 +2189,26 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="4">
-        <f t="shared" ref="E6:E7" si="0">$E$8/3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F6" s="4">
         <f>D6*E6</f>
-        <v>5.3333333333333337E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
       <c r="E7" s="4">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>0.08</v>
       </c>
       <c r="F7" s="4">
         <f>D7*E7</f>
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2222,7 @@
       </c>
       <c r="F8" s="4">
         <f>SUM(F5:F7)</f>
-        <v>0.11733333333333335</v>
+        <v>0.18559999999999999</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
@@ -2243,7 +2247,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:F22" si="1">D11*E11</f>
+        <f t="shared" ref="F11:F22" si="0">D11*E11</f>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2255,11 +2259,11 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" ref="E12:E22" si="2">$E$23/12</f>
+        <f t="shared" ref="E12:E22" si="1">$E$23/12</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2271,11 +2275,11 @@
         <v>1</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2287,11 +2291,11 @@
         <v>0.88</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2303,11 +2307,11 @@
         <v>0.88</v>
       </c>
       <c r="E15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2323,7 +2327,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -2339,7 +2343,7 @@
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
     </row>
@@ -2351,11 +2355,11 @@
         <v>0.88</v>
       </c>
       <c r="E18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2367,11 +2371,11 @@
         <v>0.75</v>
       </c>
       <c r="E19" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
@@ -2383,11 +2387,11 @@
         <v>0.88</v>
       </c>
       <c r="E20" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2399,11 +2403,11 @@
         <v>0.88</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4666666666666666E-2</v>
       </c>
     </row>
@@ -2415,11 +2419,11 @@
         <v>1</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
@@ -2428,14 +2432,14 @@
         <v>41</v>
       </c>
       <c r="D23" s="4">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="E23" s="4">
         <v>0.2</v>
       </c>
       <c r="F23" s="4">
         <f>D23*E23</f>
-        <v>0.18400000000000002</v>
+        <v>0.18600000000000003</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2466,14 +2470,16 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F8,F25,F23)/E27)</f>
-        <v>0.80255128205128201</v>
+        <v>0.91065384615384615</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <v>0.92</v>
+      </c>
       <c r="E29" s="4">
         <f>1-E27</f>
         <v>0.35</v>
@@ -2499,18 +2505,20 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.52165833333333333</v>
+        <v>0.9139250000000001</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>D-</v>
+        <v>A+</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>0.89</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2568,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2086A78-E6EF-4D16-A854-20A999490499}">
-  <dimension ref="B2:H30"/>
+  <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,13 +2666,15 @@
       <c r="C8" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
       <c r="E8" s="10">
         <v>0.02</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2678,8 +2688,8 @@
         <v>0.34000000000000008</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(F5:F7)</f>
-        <v>0.29600000000000004</v>
+        <f>SUM(F5:F8)</f>
+        <v>0.31600000000000006</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2864,26 +2874,28 @@
       <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
       <c r="E23" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="10">
         <f>SUM(E12:E23)</f>
         <v>5.9999999999999991E-2</v>
       </c>
       <c r="F24" s="4">
         <f>SUM(F12:F23)</f>
-        <v>5.4999999999999993E-2</v>
+        <v>5.9999999999999991E-2</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2900,7 +2912,7 @@
       </c>
       <c r="F26" s="1">
         <f>(SUM(F9,F24)/E26)</f>
-        <v>0.87749999999999995</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2912,6 +2924,7 @@
         <f>1-E26</f>
         <v>0.59999999999999987</v>
       </c>
+      <c r="F27" s="1"/>
     </row>
     <row r="29" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H29" s="12" t="s">
@@ -2929,18 +2942,45 @@
         <v>16</v>
       </c>
       <c r="F30" s="1">
-        <f>SUM(F26*E26,F27*E27)</f>
-        <v>0.35100000000000003</v>
+        <f>SUM(F26*E26,D27*E27)</f>
+        <v>0.37600000000000006</v>
       </c>
       <c r="H30" t="str">
         <f>LOOKUP(F30,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
         <v>F</v>
       </c>
     </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="10">
+        <v>0.79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="10">
+        <v>0.71</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D9:D24">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -2963,8 +3003,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D8">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="D9:D24">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
@@ -3281,8 +3321,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C5:C8 C10:C16">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="50"/>
@@ -3305,8 +3345,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:C8 C10:C16">
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="C23">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percent" val="50"/>
@@ -3535,24 +3575,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percent" val="50"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="45"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="percent" val="50"/>
-        <cfvo type="percent" val="100"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>

--- a/Year 4 Grades.xlsx
+++ b/Year 4 Grades.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\University\4th_Year\Code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C6BD2-28F8-408A-BF41-F9280166530D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE2670-EDF7-454A-B5F2-CB2893F644CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" activeTab="2" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="769" xr2:uid="{A1BD24B9-1795-480B-9592-5AE2E18FE68C}"/>
   </bookViews>
   <sheets>
     <sheet name="SYSC 4504" sheetId="1" r:id="rId1"/>
@@ -875,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B40B08C-6FC0-4384-833D-8D5890E86605}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,26 +1042,30 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4">
+        <v>0.67</v>
+      </c>
       <c r="E15" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F15" s="4">
         <f>D15*E15</f>
-        <v>0</v>
+        <v>4.6900000000000004E-2</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4">
+        <v>0.92</v>
+      </c>
       <c r="E16" s="4">
         <v>0.12</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ref="F16" si="1">D16*E16</f>
-        <v>0</v>
+        <v>0.1104</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1075,7 +1079,7 @@
       </c>
       <c r="F17" s="4">
         <f>SUM(F14:F16)</f>
-        <v>2.76E-2</v>
+        <v>0.18490000000000001</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1137,7 +1141,7 @@
       </c>
       <c r="F27" s="1">
         <f>(SUM(F11,F17,F24,F22)/E27)</f>
-        <v>0.66169230769230758</v>
+        <v>0.90369230769230757</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1145,14 +1149,16 @@
       <c r="C29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4">
+        <v>0.46</v>
+      </c>
       <c r="E29" s="4">
         <f>1-E27</f>
         <v>0.34999999999999987</v>
       </c>
       <c r="F29" s="4">
         <f>D29*E29</f>
-        <v>0</v>
+        <v>0.16099999999999995</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -1172,11 +1178,11 @@
       </c>
       <c r="F31" s="1">
         <f>(F27*E27)+(D29*E29)</f>
-        <v>0.43010000000000004</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="H31" t="str">
         <f>LOOKUP(F31,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -1350,11 +1356,11 @@
       </c>
       <c r="G6" s="1">
         <f>'SYSC 4504'!F31</f>
-        <v>0.43010000000000004</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="H6" t="str">
         <f>LOOKUP(G6,'LetterGrade Lookup'!B3:C15,'LetterGrade Lookup'!C3:C15)</f>
-        <v>F</v>
+        <v>B</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -2132,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86B24F5A-D51A-416E-8B54-9C8C94319869}">
   <dimension ref="C2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
